--- a/Vivian/BD Wiki.xlsx
+++ b/Vivian/BD Wiki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e80b190c7a58dec9/SUD/Organizaciones y sus proyectos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-GLOBAL\Vivian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D16ABC8E-AFAA-4728-A183-A5BB1E4B9D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12710F9A-06BB-454C-B360-EDDDB1CB7A04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0BF68-5167-4495-B004-A76942F1E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7025596-9AEA-4D70-8A0C-916E65047355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7025596-9AEA-4D70-8A0C-916E65047355}"/>
   </bookViews>
   <sheets>
     <sheet name="OI de ayuda al desarrollo" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="252">
   <si>
     <t>Alianza Mundial para Vacunas e Inmunización (IFFI, International Finance Facility for Immunisation)</t>
   </si>
@@ -952,7 +952,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,12 +962,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,11 +1031,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1059,57 +1050,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1427,2090 +1416,2480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2BCD23-9F22-4942-AD0E-A10324B0A590}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="1" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="1" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="1" t="s">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="1" t="s">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="1" t="s">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="1" t="s">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1" t="s">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1" t="s">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1" t="s">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="1" t="s">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="1" t="s">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="1" t="s">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="1" t="s">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="1" t="s">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="1" t="s">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="1" t="s">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="23" t="s">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="24" t="s">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="23" t="s">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="24" t="s">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16" t="s">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="23" t="s">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="23" t="s">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="23" t="s">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="23" t="s">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="1" t="s">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="1" t="s">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="1" t="s">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="1" t="s">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="1" t="s">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="1" t="s">
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="1" t="s">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="1" t="s">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="1" t="s">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="1" t="s">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="1" t="s">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="1" t="s">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="1" t="s">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="1" t="s">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="1" t="s">
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="1" t="s">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="1" t="s">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="1" t="s">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="3" t="s">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="9" t="s">
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="9" t="s">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="9" t="s">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="3" t="s">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="3" t="s">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="3" t="s">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="9" t="s">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="3" t="s">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9" t="s">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="3" t="s">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="3" t="s">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="3" t="s">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="3" t="s">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9" t="s">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="3" t="s">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9" t="s">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="9" t="s">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="3" t="s">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="3" t="s">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="9" t="s">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="3" t="s">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="3" t="s">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="3" t="s">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="3" t="s">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="3" t="s">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="3" t="s">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="3" t="s">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="3" t="s">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="3" t="s">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="9" t="s">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="9" t="s">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="9" t="s">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="3" t="s">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="3" t="s">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="3" t="s">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="3" t="s">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="3" t="s">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="3" t="s">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="3" t="s">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="9" t="s">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="9" t="s">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="9" t="s">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="3" t="s">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="3" t="s">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="3" t="s">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="9" t="s">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="3" t="s">
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="9" t="s">
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="3" t="s">
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="3" t="s">
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="9" t="s">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="9" t="s">
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E114" s="8"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="3" t="s">
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="3" t="s">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="9" t="s">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="3" t="s">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="3" t="s">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="3" t="s">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="9" t="s">
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B122" s="16" t="s">
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="3" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="3" t="s">
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="11" t="s">
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="11" t="s">
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="11" t="s">
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="14" t="s">
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="3" t="s">
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="11" t="s">
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="14" t="s">
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="3" t="s">
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="3" t="s">
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="11" t="s">
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="14" t="s">
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="13" t="s">
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="11" t="s">
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="11" t="s">
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="11" t="s">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="11" t="s">
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="11" t="s">
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="11" t="s">
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="17" t="s">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="13" t="s">
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="13" t="s">
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="3" t="s">
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="20" t="s">
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="14" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="3" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="11" t="s">
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="11" t="s">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="11" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="11" t="s">
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="154" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="11" t="s">
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-    </row>
-    <row r="155" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="17" t="s">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B155" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="3" t="s">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="13" t="s">
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C157" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-    </row>
-    <row r="158" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-      <c r="B158" s="11" t="s">
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" s="11" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="11" t="s">
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="B161" s="11" t="s">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-      <c r="B162" s="11" t="s">
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="17" t="s">
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B163" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="3" t="s">
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="17" t="s">
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="3" t="s">
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="17"/>
+      <c r="C166" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="11" t="s">
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="11" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5" ht="42.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="11" t="s">
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="11" t="s">
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="B171" s="11" t="s">
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="11" t="s">
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:5" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B172" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-      <c r="B173" s="11" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
-      <c r="B174" s="11" t="s">
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="B175" s="11" t="s">
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-      <c r="B176" s="11" t="s">
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
-      <c r="B177" s="11" t="s">
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="B178" s="21" t="s">
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-    </row>
-    <row r="179" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="13" t="s">
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
-      <c r="B180" s="11" t="s">
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
-      <c r="B181" s="11" t="s">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
-      <c r="B182" s="11" t="s">
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-      <c r="B183" s="17" t="s">
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="13" t="s">
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="25"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="25"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="25"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="25"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="25"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="25"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C185" s="21"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C186" s="21"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C187" s="21"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C188" s="21"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C189" s="21"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C190" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="2">
     <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A122:A184"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A2:A61"/>
-    <mergeCell ref="A62:A121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B148:B149"/>
     <mergeCell ref="B163:B164"/>
   </mergeCells>
   <hyperlinks>

--- a/Vivian/BD Wiki.xlsx
+++ b/Vivian/BD Wiki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-GLOBAL\Vivian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Documents\GitHub\DATA-GLOBAL\Vivian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0BF68-5167-4495-B004-A76942F1E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685035AD-AB33-48BF-9EA9-0716CF80E280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7025596-9AEA-4D70-8A0C-916E65047355}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7025596-9AEA-4D70-8A0C-916E65047355}"/>
   </bookViews>
   <sheets>
     <sheet name="OI de ayuda al desarrollo" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="386">
   <si>
     <t>Alianza Mundial para Vacunas e Inmunización (IFFI, International Finance Facility for Immunisation)</t>
   </si>
@@ -903,6 +898,408 @@
   </si>
   <si>
     <t>https://www.boad.org</t>
+  </si>
+  <si>
+    <t>https://www.caribank.org</t>
+  </si>
+  <si>
+    <t>https://www.caribank.org/our-work/projects-map</t>
+  </si>
+  <si>
+    <t>https://coebank.org/en/</t>
+  </si>
+  <si>
+    <t>https://coebank.org/en/project-financing/</t>
+  </si>
+  <si>
+    <t>https://eabr.org/en/</t>
+  </si>
+  <si>
+    <t>https://eabr.org/en/projects/eabr/</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/projects/regions/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.ebrd.com/home</t>
+  </si>
+  <si>
+    <t>https://www.ebrd.com/work-with-us/project-finance/project-summary-documents.html</t>
+  </si>
+  <si>
+    <t>https://iib.int/en</t>
+  </si>
+  <si>
+    <t>https://iib.int/en/projects/implemented</t>
+  </si>
+  <si>
+    <t>https://www.isdb.org</t>
+  </si>
+  <si>
+    <t>https://www.isdb.org/project-procurement/</t>
+  </si>
+  <si>
+    <t>https://www.nib.int</t>
+  </si>
+  <si>
+    <t>https://www.caf.com</t>
+  </si>
+  <si>
+    <t>https://www.caf.com/es/proyectos/</t>
+  </si>
+  <si>
+    <t>Ya tenemos los proyectos extraidos</t>
+  </si>
+  <si>
+    <t>https://www.cta.int/en/</t>
+  </si>
+  <si>
+    <t>https://www.cta.int/en/projects</t>
+  </si>
+  <si>
+    <t>https://www.icrc.org/es/home</t>
+  </si>
+  <si>
+    <t>https://www.icrc.org/es/nuestras-actividades</t>
+  </si>
+  <si>
+    <t>En proyectos esta el link de las actividades que realizan</t>
+  </si>
+  <si>
+    <t>http://www.exteriores.gob.es/RepresentacionesPermanentes/OficinadelasNacionesUnidas/es/quees2/Paginas/Otros%20Organismos%20y%20Fondos/UNCTAD.aspx</t>
+  </si>
+  <si>
+    <t>http://www.reingex.com/Fondo-Arabe.shtml</t>
+  </si>
+  <si>
+    <t>No tengo seguridad de que sea el sitio correcto, pero no encuentro más</t>
+  </si>
+  <si>
+    <t>https://www.unfpa.org</t>
+  </si>
+  <si>
+    <t>https://www.fonplata.org/es</t>
+  </si>
+  <si>
+    <t>https://www.fonplata.org/es/operaciones-por-pais</t>
+  </si>
+  <si>
+    <t>https://www.ifad.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.ifad.org/en/search?_3_formDate=1604022472008&amp;p_p_id=3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_3_struts_action=%2Fsearch%2Fsearch&amp;_3_cur=1&amp;_3_format=&amp;_3_keywords=projects&amp;_3_categories=&amp;_3_groupId=0&amp;_3_entryClassName=&amp;_3_assetCategoryIds=&amp;_3_modified=&amp;_3_modifiedselection=0&amp;_3_modifiedfrom=10%2F29%2F2020&amp;_3_modifieddayFrom=29&amp;_3_modifiedmonthFrom=9&amp;_3_modifiedyearFrom=2020&amp;_3_modifiedto=10%2F30%2F2020&amp;_3_modifieddayTo=30&amp;_3_modifiedmonthTo=9&amp;_3_modifiedyearTo=2020&amp;_3_documentsSearchContainerPrimaryKeys=15_PORTLET_41298259%2C15_PORTLET_41845594%2C15_PORTLET_41663017%2C15_PORTLET_41661419%2C15_PORTLET_41844301%2C15_PORTLET_41691574%2C15_PORTLET_41691132%2C15_PORTLET_41690027%2C15_PORTLET_41688225%2C15_PORTLET_41685879%2C15_PORTLET_41684077%2C15_PORTLET_41676143%2C15_PORTLET_41670329%2C15_PORTLET_41669088%2C15_PORTLET_41666997%2C15_PORTLET_41666045%2C15_PORTLET_41665892%2C15_PORTLET_41665773%2C15_PORTLET_41665739%2C15_PORTLET_41664192</t>
+  </si>
+  <si>
+    <t>Es proyectos, el enlace es a una consulta que muestra los proyectos</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/external/index.htm</t>
+  </si>
+  <si>
+    <t>https://opecfund.org</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en</t>
+  </si>
+  <si>
+    <t>https://mapafrica.afdb.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en/about-us/corporate-information/nigeria-trust-fund-ntf</t>
+  </si>
+  <si>
+    <t>Misma dirección para el Grupo Africano</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/acerca-del-bid/financiamiento-del-bid/financiamiento-del-bid%2C6028.html</t>
+  </si>
+  <si>
+    <t>Tenemos un xlx</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/proyectos</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/resources-businesses/fondo-multilateral-de-inversiones</t>
+  </si>
+  <si>
+    <t>https://www.bancomundial.org/es/who-we-are/ibrd</t>
+  </si>
+  <si>
+    <t>https://projects.bancomundial.org/es/projects-operations/projects-list</t>
+  </si>
+  <si>
+    <t>Tenemos un excel</t>
+  </si>
+  <si>
+    <t>https://ida.worldbank.org</t>
+  </si>
+  <si>
+    <t>https://projects.worldbank.org/en/projects-operations/projects-list</t>
+  </si>
+  <si>
+    <t>https://www.ifc.org/wps/wcm/connect/multilingual_ext_content/ifc_external_corporate_site/home_es</t>
+  </si>
+  <si>
+    <t>https://disclosures.ifc.org/#/landing</t>
+  </si>
+  <si>
+    <t>https://www.miga.org</t>
+  </si>
+  <si>
+    <t>https://www.miga.org/projects</t>
+  </si>
+  <si>
+    <t>https://icsid.worldbank.org/ICSID/Index.jsp</t>
+  </si>
+  <si>
+    <t>https://www.ndb.int</t>
+  </si>
+  <si>
+    <t>https://www.ndb.int/projects/list-of-all-projects/</t>
+  </si>
+  <si>
+    <t>https://www.unocha.org//</t>
+  </si>
+  <si>
+    <t>http://www.eco.int</t>
+  </si>
+  <si>
+    <t>https://www.unido.org</t>
+  </si>
+  <si>
+    <t>https://open.unido.org</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/home/es/</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/in-action/fao-projects/es/</t>
+  </si>
+  <si>
+    <t>https://www.un.org</t>
+  </si>
+  <si>
+    <t>https://www.idlo.int</t>
+  </si>
+  <si>
+    <t>http://www.ilo.org/global/lang--es/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.iom.int</t>
+  </si>
+  <si>
+    <t>https://www.who.int/es/</t>
+  </si>
+  <si>
+    <t>https://www.wto.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>http://www.oecd.org</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/api/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> API</t>
+  </si>
+  <si>
+    <t>https://colombo-plan.org</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/content/undp/es/home/</t>
+  </si>
+  <si>
+    <t>Tenemos un Word con APIs</t>
+  </si>
+  <si>
+    <t>https://www.unep.org</t>
+  </si>
+  <si>
+    <t>https://es.unhabitat.org</t>
+  </si>
+  <si>
+    <t>https://www.wfp.org</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org</t>
+  </si>
+  <si>
+    <t>https://www.acted.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.acted.org/en/what-we-do/our-programmes/</t>
+  </si>
+  <si>
+    <t>https://actionaid.org</t>
+  </si>
+  <si>
+    <t>https://worldaccord.org</t>
+  </si>
+  <si>
+    <t>https://www.susana.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.susana.org/en/knowledge-hub/projects/database</t>
+  </si>
+  <si>
+    <t>https://adra.org</t>
+  </si>
+  <si>
+    <t>https://www.mercyrelief.org</t>
+  </si>
+  <si>
+    <t>https://ayudaenaccion.org/ong/</t>
+  </si>
+  <si>
+    <t>https://ayudaenaccion.org/ong/proyectos/</t>
+  </si>
+  <si>
+    <t>https://www.akdn.org</t>
+  </si>
+  <si>
+    <t>http://www.brac.net</t>
+  </si>
+  <si>
+    <t>http://www.brac.net/what-we-do</t>
+  </si>
+  <si>
+    <t>https://camfed.org</t>
+  </si>
+  <si>
+    <t>https://www.care-international.org</t>
+  </si>
+  <si>
+    <t>https://www.care-international.org/what-we-do/our-focus-on-women-and-girls</t>
+  </si>
+  <si>
+    <t>https://www.crsespanol.org</t>
+  </si>
+  <si>
+    <t>https://www.cvt.org</t>
+  </si>
+  <si>
+    <t>https://www.cvt.org/what-we-do</t>
+  </si>
+  <si>
+    <t>https://cvl.com.ng</t>
+  </si>
+  <si>
+    <t>https://www.mcclaca.org/es/</t>
+  </si>
+  <si>
+    <t>https://www.mcclaca.org/es/category/programas/</t>
+  </si>
+  <si>
+    <t>https://www.compassion.es</t>
+  </si>
+  <si>
+    <t>https://lamia.org</t>
+  </si>
+  <si>
+    <t>https://www.codespa.org</t>
+  </si>
+  <si>
+    <t>https://www.codespa.org/proyectos/</t>
+  </si>
+  <si>
+    <t>https://www.seva.org/site/SPageServer/;jsessionid=00000000.app20098b?NONCE_TOKEN=D55F7311D4D79302D1690749BD99E477</t>
+  </si>
+  <si>
+    <t>https://iclei.org</t>
+  </si>
+  <si>
+    <t>https://iclei.org/en/what_we_do.html</t>
+  </si>
+  <si>
+    <t>https://www.habitat.org</t>
+  </si>
+  <si>
+    <t>http://www.helpagela.org</t>
+  </si>
+  <si>
+    <t>http://www.helpagela.org/queacute-hacemos/</t>
+  </si>
+  <si>
+    <t>Aparece para diversos paises</t>
+  </si>
+  <si>
+    <t>https://www.malteser-international.org/en.html</t>
+  </si>
+  <si>
+    <t>https://www.malteser-international.org/en/about-us/what-we-do.html</t>
+  </si>
+  <si>
+    <t>https://en.jugendeinewelt.at</t>
+  </si>
+  <si>
+    <t>https://www.manosunidas.org</t>
+  </si>
+  <si>
+    <t>https://www.manosunidas.org/proyectos-manos-unidas</t>
+  </si>
+  <si>
+    <t>https://www.msf.es</t>
+  </si>
+  <si>
+    <t>https://www.msf.es/conocenos/que-hacemos</t>
+  </si>
+  <si>
+    <t>https://www.mercycorps.org</t>
+  </si>
+  <si>
+    <t>https://www.mercycorps.org/what-we-do</t>
+  </si>
+  <si>
+    <t>https://www.wecf.org</t>
+  </si>
+  <si>
+    <t>https://www.wecf.org/our-work/</t>
+  </si>
+  <si>
+    <t>https://www.oxfam.org/es</t>
+  </si>
+  <si>
+    <t>https://www.oxfam.org/es/que-hacemos/temas</t>
+  </si>
+  <si>
+    <t>https://plan-international.org</t>
+  </si>
+  <si>
+    <t>https://plan-international.org/what-we-do</t>
+  </si>
+  <si>
+    <t>https://www.samaritanspurse.org</t>
+  </si>
+  <si>
+    <t>https://www.savethechildren.org</t>
+  </si>
+  <si>
+    <t>https://www.savethechildren.org/us/what-we-do</t>
+  </si>
+  <si>
+    <t>Esta para diversos paises</t>
+  </si>
+  <si>
+    <t>https://tmss-bd.org</t>
+  </si>
+  <si>
+    <t>https://trickleup.org</t>
+  </si>
+  <si>
+    <t>https://trickleup.org/our-impact/projects/</t>
+  </si>
+  <si>
+    <t>https://www.wateraid.org/?global=1</t>
+  </si>
+  <si>
+    <t>https://www.wvi.org</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1026,12 +1423,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1069,15 +1479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1097,6 +1498,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1414,28 +1840,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2BCD23-9F22-4942-AD0E-A10324B0A590}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="19" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1448,12 +1875,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1463,12 +1890,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1478,12 +1905,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1493,12 +1920,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1508,12 +1935,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1521,12 +1948,12 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1536,12 +1963,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1554,12 +1981,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1569,12 +1996,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1587,12 +2014,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1600,12 +2027,12 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1613,12 +2040,12 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1626,12 +2053,12 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1641,308 +2068,418 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1950,414 +2487,514 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E54" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E59" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E60" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E63" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E64" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -2365,25 +3002,30 @@
       </c>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -2391,38 +3033,45 @@
       </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -2430,51 +3079,60 @@
       </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -2482,77 +3140,93 @@
       </c>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2560,12 +3234,12 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -2573,12 +3247,12 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -2586,25 +3260,25 @@
       </c>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -2612,38 +3286,45 @@
       </c>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="17" t="s">
         <v>88</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -2651,12 +3332,12 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -2664,51 +3345,60 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -2716,38 +3406,46 @@
       </c>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -2755,38 +3453,45 @@
       </c>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B99" s="13"/>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -2794,64 +3499,84 @@
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B102" s="13"/>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="E104" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B105" s="13"/>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F105" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -2859,12 +3584,12 @@
       </c>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B107" s="13"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -2872,25 +3597,30 @@
       </c>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="13"/>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -2898,25 +3628,30 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B110" s="13"/>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B111" s="13"/>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -2924,12 +3659,12 @@
       </c>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B112" s="13"/>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -2937,51 +3672,61 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B113" s="13"/>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B114" s="13"/>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B115" s="13"/>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B116" s="13"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -2989,25 +3734,27 @@
       </c>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="13"/>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="E117" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B118" s="13"/>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -3015,877 +3762,886 @@
       </c>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="13"/>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="17" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="13"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="13"/>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="17" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="17" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="17" t="s">
         <v>139</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="17" t="s">
         <v>145</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="17" t="s">
         <v>148</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="17" t="s">
         <v>150</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="17" t="s">
         <v>188</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="17" t="s">
         <v>190</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="17" t="s">
         <v>167</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="17" t="s">
         <v>166</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="17" t="s">
         <v>191</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="17" t="s">
         <v>194</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="17" t="s">
         <v>170</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="17" t="s">
         <v>218</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="17" t="s">
         <v>217</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="17" t="s">
         <v>174</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="17" t="s">
         <v>198</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="17" t="s">
         <v>202</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="17" t="s">
         <v>204</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="17" t="s">
         <v>177</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="17" t="s">
         <v>181</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="17" t="s">
         <v>205</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="17" t="s">
         <v>184</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="17" t="s">
         <v>219</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="20" t="s">
+      <c r="B164" s="30"/>
+      <c r="C164" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="17" t="s">
         <v>221</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B166" s="17"/>
-      <c r="C166" s="20" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="17" t="s">
         <v>222</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="17" t="s">
         <v>211</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" ht="42.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="17" t="s">
         <v>231</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="17" t="s">
         <v>215</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B176" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="17" t="s">
         <v>235</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="17" t="s">
         <v>236</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="17" t="s">
         <v>155</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C185" s="21"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C186" s="21"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C187" s="21"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C188" s="21"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C189" s="21"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C190" s="21"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="18"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C186" s="18"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="18"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="18"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="18"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C190" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3927,54 +4683,56 @@
     <hyperlink ref="D33" r:id="rId32" tooltip="Banco Africano de Desarrollo" display="https://es.wikipedia.org/wiki/Banco_Africano_de_Desarrollo" xr:uid="{F5A439F4-C770-4E8B-BB9E-ED80D9E857D0}"/>
     <hyperlink ref="D34" r:id="rId33" tooltip="Fondo Africano de Desarrollo (aún no redactado)" display="https://es.wikipedia.org/w/index.php?title=Fondo_Africano_de_Desarrollo&amp;action=edit&amp;redlink=1" xr:uid="{D5C915C2-58AC-4F44-9F8D-DF2768C5DD2A}"/>
     <hyperlink ref="D36" r:id="rId34" tooltip="Banco Interamericano de Desarrollo" display="https://es.wikipedia.org/wiki/Banco_Interamericano_de_Desarrollo" xr:uid="{EB9B9D42-912B-4795-8428-7CD61FD8D402}"/>
-    <hyperlink ref="D37" r:id="rId35" tooltip="Corporación Interamericana de Inversiones" display="https://es.wikipedia.org/wiki/Corporaci%C3%B3n_Interamericana_de_Inversiones" xr:uid="{F818E0D8-F81D-4938-8659-0CA250E106CB}"/>
-    <hyperlink ref="D39" r:id="rId36" tooltip="Banco Internacional de Reconstrucción y Fomento" display="https://es.wikipedia.org/wiki/Banco_Internacional_de_Reconstrucci%C3%B3n_y_Fomento" xr:uid="{D1ECCB8B-5890-4E51-A13C-5934ED169C04}"/>
-    <hyperlink ref="D40" r:id="rId37" tooltip="Asociación Internacional de Fomento" display="https://es.wikipedia.org/wiki/Asociaci%C3%B3n_Internacional_de_Fomento" xr:uid="{B8878C1C-5D8D-44BA-8B01-EA29605B8544}"/>
-    <hyperlink ref="D41" r:id="rId38" tooltip="Corporación Financiera Internacional" display="https://es.wikipedia.org/wiki/Corporaci%C3%B3n_Financiera_Internacional" xr:uid="{B2C0E59E-8727-46D6-A43D-4352A3497F41}"/>
-    <hyperlink ref="D42" r:id="rId39" tooltip="Organismo Multilateral de Garantía de Inversiones" display="https://es.wikipedia.org/wiki/Organismo_Multilateral_de_Garant%C3%ADa_de_Inversiones" xr:uid="{3AE89C0E-B2F7-4E5E-8345-DA9AC3DBF9F0}"/>
-    <hyperlink ref="D43" r:id="rId40" tooltip="Centro Internacional de Arreglo de Diferencias Relativas a Inversiones" display="https://es.wikipedia.org/wiki/Centro_Internacional_de_Arreglo_de_Diferencias_Relativas_a_Inversiones" xr:uid="{4D7D0F6B-6272-454A-82FC-E2D9340CBC05}"/>
-    <hyperlink ref="D44" r:id="rId41" tooltip="Nuevo Banco de Desarrollo" display="https://es.wikipedia.org/wiki/Nuevo_Banco_de_Desarrollo" xr:uid="{37432EBF-08EA-4600-A597-49933606D6F5}"/>
-    <hyperlink ref="D45" r:id="rId42" tooltip="Oficina de Naciones Unidas para la Coordinación de Asuntos Humanitarios" display="https://es.wikipedia.org/wiki/Oficina_de_Naciones_Unidas_para_la_Coordinaci%C3%B3n_de_Asuntos_Humanitarios" xr:uid="{89969368-EED5-490B-9413-5083C688999A}"/>
-    <hyperlink ref="D46" r:id="rId43" location="Banco_de_Comercio_y_Desarrollo_de_la_Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica" tooltip="Organización de Cooperación Económica" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica - Banco_de_Comercio_y_Desarrollo_de_la_Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica" xr:uid="{793B9274-CE51-4AD3-A7D7-5893CD2DBEC1}"/>
-    <hyperlink ref="D47" r:id="rId44" tooltip="Organización de las Naciones Unidas para el Desarrollo Industrial" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas_para_el_Desarrollo_Industrial" xr:uid="{8EA60E19-278C-44DF-8C38-D57DF6D3552C}"/>
-    <hyperlink ref="D48" r:id="rId45" tooltip="Organización de las Naciones Unidas para la Alimentación y la Agricultura" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas_para_la_Alimentaci%C3%B3n_y_la_Agricultura" xr:uid="{999D0877-7791-496C-8E7D-85D13579C4E3}"/>
-    <hyperlink ref="D49" r:id="rId46" tooltip="Organización de las Naciones Unidas" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas" xr:uid="{5A388FA5-DAF7-4B9B-B892-45740B5A6B85}"/>
-    <hyperlink ref="D50" r:id="rId47" tooltip="Organización Internacional de Derecho para el Desarrollo" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_de_Derecho_para_el_Desarrollo" xr:uid="{C98D1094-3069-4669-B306-C6A6ABE91D59}"/>
-    <hyperlink ref="D51" r:id="rId48" tooltip="Organización Internacional del Trabajo" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_del_Trabajo" xr:uid="{C1A43F88-0C38-4BAB-AE93-F86B2C25FEB1}"/>
-    <hyperlink ref="D52" r:id="rId49" tooltip="Organización Internacional para las Migraciones" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_para_las_Migraciones" xr:uid="{9C35A90E-CA6C-4DEA-BB34-7C2138F2DFF6}"/>
-    <hyperlink ref="D53" r:id="rId50" tooltip="Organización Mundial de la Salud" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Mundial_de_la_Salud" xr:uid="{9C5A1D59-F617-4B56-A97B-09EC8CCA477D}"/>
-    <hyperlink ref="D54" r:id="rId51" tooltip="Organización Mundial del Comercio" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Mundial_del_Comercio" xr:uid="{FD9C2437-415A-4AF7-ABD0-F91DA5E44D93}"/>
-    <hyperlink ref="D55" r:id="rId52" tooltip="Organización para la Cooperación y el Desarrollo Económicos" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_para_la_Cooperaci%C3%B3n_y_el_Desarrollo_Econ%C3%B3micos" xr:uid="{9C882EC9-E556-4A96-9A61-EC9E0BAE4FA8}"/>
-    <hyperlink ref="D56" r:id="rId53" tooltip="Plan Colombo" display="https://es.wikipedia.org/wiki/Plan_Colombo" xr:uid="{003B92B1-B2D4-41DA-A290-E0974E8C4C8D}"/>
-    <hyperlink ref="D57" r:id="rId54" tooltip="Programa de las Naciones Unidas para el Desarrollo" display="https://es.wikipedia.org/wiki/Programa_de_las_Naciones_Unidas_para_el_Desarrollo" xr:uid="{E9A23525-E8D3-4DA2-9B48-243A6E5AD9F9}"/>
-    <hyperlink ref="D58" r:id="rId55" tooltip="Programa de las Naciones Unidas para el Medio Ambiente" display="https://es.wikipedia.org/wiki/Programa_de_las_Naciones_Unidas_para_el_Medio_Ambiente" xr:uid="{A6D09EC7-5970-4868-9478-DAEF564D1856}"/>
-    <hyperlink ref="D59" r:id="rId56" tooltip="Programa de Naciones Unidas para los Asentamientos Humanos" display="https://es.wikipedia.org/wiki/Programa_de_Naciones_Unidas_para_los_Asentamientos_Humanos" xr:uid="{77F8AF9A-0185-431D-9BDA-258112AA7F01}"/>
-    <hyperlink ref="D60" r:id="rId57" tooltip="Programa Mundial de Alimentos" display="https://es.wikipedia.org/wiki/Programa_Mundial_de_Alimentos" xr:uid="{8A52614A-5734-4AB1-A47F-55BA2D954C59}"/>
-    <hyperlink ref="D61" r:id="rId58" tooltip="Unicef" display="https://es.wikipedia.org/wiki/Unicef" xr:uid="{E72A7D1E-994F-49EB-97E0-91EB49FFFEA1}"/>
-    <hyperlink ref="D63" r:id="rId59" tooltip="ActionAid International" display="https://es.wikipedia.org/wiki/ActionAid_International" xr:uid="{7B662C20-40C5-444B-93BE-509F40BD59DC}"/>
-    <hyperlink ref="D64" r:id="rId60" location="cite_note-48" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-48" xr:uid="{2A7974EA-8725-4626-B7E1-1DD45600D9C6}"/>
-    <hyperlink ref="D65" r:id="rId61" tooltip="Agencia Adventista de Desarrollo y Recursos Asistenciales" display="https://es.wikipedia.org/wiki/Agencia_Adventista_de_Desarrollo_y_Recursos_Asistenciales" xr:uid="{3D672296-A83A-4AD1-92B9-E9A82F3311C6}"/>
-    <hyperlink ref="D69" r:id="rId62" tooltip="Ayuda en Acción" display="https://es.wikipedia.org/wiki/Ayuda_en_Acci%C3%B3n" xr:uid="{6CE35894-3535-495C-B357-F792188FE78B}"/>
-    <hyperlink ref="D71" r:id="rId63" tooltip="Aga Khan Development Network" display="https://es.wikipedia.org/wiki/Aga_Khan_Development_Network" xr:uid="{9B43FC7D-1FEE-401B-8D49-11B2C3F410AE}"/>
-    <hyperlink ref="D76" r:id="rId64" tooltip="Catholic Relief Services" display="https://es.wikipedia.org/wiki/Catholic_Relief_Services" xr:uid="{B0778A9D-E92E-477C-A770-4D79E295BC22}"/>
-    <hyperlink ref="D78" r:id="rId65" location="cite_note-49" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-49" xr:uid="{1A8AEE72-4947-4F74-B675-7D7EEC9AC6B5}"/>
-    <hyperlink ref="D79" r:id="rId66" location="cite_note-50" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-50" xr:uid="{D1F0E490-736E-425D-B10E-2F415CA94392}"/>
-    <hyperlink ref="D82" r:id="rId67" tooltip="Compassion International" display="https://es.wikipedia.org/wiki/Compassion_International" xr:uid="{707D3269-B432-4BA5-9991-A1194344CC62}"/>
-    <hyperlink ref="D92" r:id="rId68" tooltip="Fundación Seva" display="https://es.wikipedia.org/wiki/Fundaci%C3%B3n_Seva" xr:uid="{3E6092F7-A58B-431D-9464-30FF878B1E73}"/>
-    <hyperlink ref="D93" r:id="rId69" tooltip="Gobiernos Locales por la Sostenibilidad" display="https://es.wikipedia.org/wiki/Gobiernos_Locales_por_la_Sostenibilidad" xr:uid="{6D45BE6C-10B2-4612-AB9D-7073C49E56FB}"/>
-    <hyperlink ref="D94" r:id="rId70" tooltip="Habitat for Humanity" display="https://es.wikipedia.org/wiki/Habitat_for_Humanity" xr:uid="{5093F324-7D74-4FA8-84F7-4C79829C29CD}"/>
-    <hyperlink ref="D102" r:id="rId71" tooltip="Manos Unidas" display="https://es.wikipedia.org/wiki/Manos_Unidas" xr:uid="{97018EF4-0297-450F-B45A-019B22BBAA5D}"/>
-    <hyperlink ref="D103" r:id="rId72" tooltip="Médicos Sin Fronteras" display="https://es.wikipedia.org/wiki/M%C3%A9dicos_Sin_Fronteras" xr:uid="{D7B6AA93-12AE-4B65-A37A-8BAD2300BE3F}"/>
-    <hyperlink ref="D104" r:id="rId73" tooltip="Mercy Corps" display="https://es.wikipedia.org/wiki/Mercy_Corps" xr:uid="{E0ED8893-C04B-403D-A371-F24A54036557}"/>
-    <hyperlink ref="D108" r:id="rId74" tooltip="Oxfam" display="https://es.wikipedia.org/wiki/Oxfam" xr:uid="{A7C8C477-0834-4F1D-B795-FA0D041663C2}"/>
-    <hyperlink ref="D110" r:id="rId75" tooltip="Plan España" display="https://es.wikipedia.org/wiki/Plan_Espa%C3%B1a" xr:uid="{3CBD7868-E86C-4544-9089-1949B5E324D2}"/>
-    <hyperlink ref="D113" r:id="rId76" tooltip="Samaritan's Purse" display="https://es.wikipedia.org/wiki/Samaritan%27s_Purse" xr:uid="{BB4ECD58-3E63-4C18-A722-0B1E6674731B}"/>
-    <hyperlink ref="D114" r:id="rId77" tooltip="Save the Children" display="https://es.wikipedia.org/wiki/Save_the_Children" xr:uid="{1C0E651B-309A-4498-BA24-3B74C6551D45}"/>
-    <hyperlink ref="D117" r:id="rId78" location="cite_note-51" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-51" xr:uid="{DCFBEAFA-8929-4A28-9899-DEE603692E3E}"/>
-    <hyperlink ref="D121" r:id="rId79" tooltip="World Vision" display="https://es.wikipedia.org/wiki/World_Vision" xr:uid="{418EAC2C-C3FC-45C6-A51A-58C79E9EA55C}"/>
-    <hyperlink ref="E2" r:id="rId80" xr:uid="{77ED589A-285C-4C4E-9500-24A11C09336A}"/>
+    <hyperlink ref="D39" r:id="rId35" tooltip="Banco Internacional de Reconstrucción y Fomento" display="https://es.wikipedia.org/wiki/Banco_Internacional_de_Reconstrucci%C3%B3n_y_Fomento" xr:uid="{D1ECCB8B-5890-4E51-A13C-5934ED169C04}"/>
+    <hyperlink ref="D40" r:id="rId36" tooltip="Asociación Internacional de Fomento" display="https://es.wikipedia.org/wiki/Asociaci%C3%B3n_Internacional_de_Fomento" xr:uid="{B8878C1C-5D8D-44BA-8B01-EA29605B8544}"/>
+    <hyperlink ref="D41" r:id="rId37" tooltip="Corporación Financiera Internacional" display="https://es.wikipedia.org/wiki/Corporaci%C3%B3n_Financiera_Internacional" xr:uid="{B2C0E59E-8727-46D6-A43D-4352A3497F41}"/>
+    <hyperlink ref="D42" r:id="rId38" tooltip="Organismo Multilateral de Garantía de Inversiones" display="https://es.wikipedia.org/wiki/Organismo_Multilateral_de_Garant%C3%ADa_de_Inversiones" xr:uid="{3AE89C0E-B2F7-4E5E-8345-DA9AC3DBF9F0}"/>
+    <hyperlink ref="D43" r:id="rId39" tooltip="Centro Internacional de Arreglo de Diferencias Relativas a Inversiones" display="https://es.wikipedia.org/wiki/Centro_Internacional_de_Arreglo_de_Diferencias_Relativas_a_Inversiones" xr:uid="{4D7D0F6B-6272-454A-82FC-E2D9340CBC05}"/>
+    <hyperlink ref="D44" r:id="rId40" tooltip="Nuevo Banco de Desarrollo" display="https://es.wikipedia.org/wiki/Nuevo_Banco_de_Desarrollo" xr:uid="{37432EBF-08EA-4600-A597-49933606D6F5}"/>
+    <hyperlink ref="D45" r:id="rId41" tooltip="Oficina de Naciones Unidas para la Coordinación de Asuntos Humanitarios" display="https://es.wikipedia.org/wiki/Oficina_de_Naciones_Unidas_para_la_Coordinaci%C3%B3n_de_Asuntos_Humanitarios" xr:uid="{89969368-EED5-490B-9413-5083C688999A}"/>
+    <hyperlink ref="D46" r:id="rId42" location="Banco_de_Comercio_y_Desarrollo_de_la_Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica" tooltip="Organización de Cooperación Económica" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica - Banco_de_Comercio_y_Desarrollo_de_la_Organizaci%C3%B3n_de_Cooperaci%C3%B3n_Econ%C3%B3mica" xr:uid="{793B9274-CE51-4AD3-A7D7-5893CD2DBEC1}"/>
+    <hyperlink ref="D47" r:id="rId43" tooltip="Organización de las Naciones Unidas para el Desarrollo Industrial" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas_para_el_Desarrollo_Industrial" xr:uid="{8EA60E19-278C-44DF-8C38-D57DF6D3552C}"/>
+    <hyperlink ref="D48" r:id="rId44" tooltip="Organización de las Naciones Unidas para la Alimentación y la Agricultura" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas_para_la_Alimentaci%C3%B3n_y_la_Agricultura" xr:uid="{999D0877-7791-496C-8E7D-85D13579C4E3}"/>
+    <hyperlink ref="D49" r:id="rId45" tooltip="Organización de las Naciones Unidas" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_de_las_Naciones_Unidas" xr:uid="{5A388FA5-DAF7-4B9B-B892-45740B5A6B85}"/>
+    <hyperlink ref="D50" r:id="rId46" tooltip="Organización Internacional de Derecho para el Desarrollo" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_de_Derecho_para_el_Desarrollo" xr:uid="{C98D1094-3069-4669-B306-C6A6ABE91D59}"/>
+    <hyperlink ref="D51" r:id="rId47" tooltip="Organización Internacional del Trabajo" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_del_Trabajo" xr:uid="{C1A43F88-0C38-4BAB-AE93-F86B2C25FEB1}"/>
+    <hyperlink ref="D52" r:id="rId48" tooltip="Organización Internacional para las Migraciones" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Internacional_para_las_Migraciones" xr:uid="{9C35A90E-CA6C-4DEA-BB34-7C2138F2DFF6}"/>
+    <hyperlink ref="D53" r:id="rId49" tooltip="Organización Mundial de la Salud" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Mundial_de_la_Salud" xr:uid="{9C5A1D59-F617-4B56-A97B-09EC8CCA477D}"/>
+    <hyperlink ref="D54" r:id="rId50" tooltip="Organización Mundial del Comercio" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_Mundial_del_Comercio" xr:uid="{FD9C2437-415A-4AF7-ABD0-F91DA5E44D93}"/>
+    <hyperlink ref="D55" r:id="rId51" tooltip="Organización para la Cooperación y el Desarrollo Económicos" display="https://es.wikipedia.org/wiki/Organizaci%C3%B3n_para_la_Cooperaci%C3%B3n_y_el_Desarrollo_Econ%C3%B3micos" xr:uid="{9C882EC9-E556-4A96-9A61-EC9E0BAE4FA8}"/>
+    <hyperlink ref="D56" r:id="rId52" tooltip="Plan Colombo" display="https://es.wikipedia.org/wiki/Plan_Colombo" xr:uid="{003B92B1-B2D4-41DA-A290-E0974E8C4C8D}"/>
+    <hyperlink ref="D57" r:id="rId53" tooltip="Programa de las Naciones Unidas para el Desarrollo" display="https://es.wikipedia.org/wiki/Programa_de_las_Naciones_Unidas_para_el_Desarrollo" xr:uid="{E9A23525-E8D3-4DA2-9B48-243A6E5AD9F9}"/>
+    <hyperlink ref="D58" r:id="rId54" tooltip="Programa de las Naciones Unidas para el Medio Ambiente" display="https://es.wikipedia.org/wiki/Programa_de_las_Naciones_Unidas_para_el_Medio_Ambiente" xr:uid="{A6D09EC7-5970-4868-9478-DAEF564D1856}"/>
+    <hyperlink ref="D59" r:id="rId55" tooltip="Programa de Naciones Unidas para los Asentamientos Humanos" display="https://es.wikipedia.org/wiki/Programa_de_Naciones_Unidas_para_los_Asentamientos_Humanos" xr:uid="{77F8AF9A-0185-431D-9BDA-258112AA7F01}"/>
+    <hyperlink ref="D60" r:id="rId56" tooltip="Programa Mundial de Alimentos" display="https://es.wikipedia.org/wiki/Programa_Mundial_de_Alimentos" xr:uid="{8A52614A-5734-4AB1-A47F-55BA2D954C59}"/>
+    <hyperlink ref="D61" r:id="rId57" tooltip="Unicef" display="https://es.wikipedia.org/wiki/Unicef" xr:uid="{E72A7D1E-994F-49EB-97E0-91EB49FFFEA1}"/>
+    <hyperlink ref="D63" r:id="rId58" tooltip="ActionAid International" display="https://es.wikipedia.org/wiki/ActionAid_International" xr:uid="{7B662C20-40C5-444B-93BE-509F40BD59DC}"/>
+    <hyperlink ref="D64" r:id="rId59" location="cite_note-48" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-48" xr:uid="{2A7974EA-8725-4626-B7E1-1DD45600D9C6}"/>
+    <hyperlink ref="D65" r:id="rId60" tooltip="Agencia Adventista de Desarrollo y Recursos Asistenciales" display="https://es.wikipedia.org/wiki/Agencia_Adventista_de_Desarrollo_y_Recursos_Asistenciales" xr:uid="{3D672296-A83A-4AD1-92B9-E9A82F3311C6}"/>
+    <hyperlink ref="D69" r:id="rId61" tooltip="Ayuda en Acción" display="https://es.wikipedia.org/wiki/Ayuda_en_Acci%C3%B3n" xr:uid="{6CE35894-3535-495C-B357-F792188FE78B}"/>
+    <hyperlink ref="D71" r:id="rId62" tooltip="Aga Khan Development Network" display="https://es.wikipedia.org/wiki/Aga_Khan_Development_Network" xr:uid="{9B43FC7D-1FEE-401B-8D49-11B2C3F410AE}"/>
+    <hyperlink ref="D76" r:id="rId63" tooltip="Catholic Relief Services" display="https://es.wikipedia.org/wiki/Catholic_Relief_Services" xr:uid="{B0778A9D-E92E-477C-A770-4D79E295BC22}"/>
+    <hyperlink ref="D78" r:id="rId64" location="cite_note-49" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-49" xr:uid="{1A8AEE72-4947-4F74-B675-7D7EEC9AC6B5}"/>
+    <hyperlink ref="D79" r:id="rId65" location="cite_note-50" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-50" xr:uid="{D1F0E490-736E-425D-B10E-2F415CA94392}"/>
+    <hyperlink ref="D82" r:id="rId66" tooltip="Compassion International" display="https://es.wikipedia.org/wiki/Compassion_International" xr:uid="{707D3269-B432-4BA5-9991-A1194344CC62}"/>
+    <hyperlink ref="D92" r:id="rId67" tooltip="Fundación Seva" display="https://es.wikipedia.org/wiki/Fundaci%C3%B3n_Seva" xr:uid="{3E6092F7-A58B-431D-9464-30FF878B1E73}"/>
+    <hyperlink ref="D93" r:id="rId68" tooltip="Gobiernos Locales por la Sostenibilidad" display="https://es.wikipedia.org/wiki/Gobiernos_Locales_por_la_Sostenibilidad" xr:uid="{6D45BE6C-10B2-4612-AB9D-7073C49E56FB}"/>
+    <hyperlink ref="D94" r:id="rId69" tooltip="Habitat for Humanity" display="https://es.wikipedia.org/wiki/Habitat_for_Humanity" xr:uid="{5093F324-7D74-4FA8-84F7-4C79829C29CD}"/>
+    <hyperlink ref="D102" r:id="rId70" tooltip="Manos Unidas" display="https://es.wikipedia.org/wiki/Manos_Unidas" xr:uid="{97018EF4-0297-450F-B45A-019B22BBAA5D}"/>
+    <hyperlink ref="D103" r:id="rId71" tooltip="Médicos Sin Fronteras" display="https://es.wikipedia.org/wiki/M%C3%A9dicos_Sin_Fronteras" xr:uid="{D7B6AA93-12AE-4B65-A37A-8BAD2300BE3F}"/>
+    <hyperlink ref="D104" r:id="rId72" tooltip="Mercy Corps" display="https://es.wikipedia.org/wiki/Mercy_Corps" xr:uid="{E0ED8893-C04B-403D-A371-F24A54036557}"/>
+    <hyperlink ref="D108" r:id="rId73" tooltip="Oxfam" display="https://es.wikipedia.org/wiki/Oxfam" xr:uid="{A7C8C477-0834-4F1D-B795-FA0D041663C2}"/>
+    <hyperlink ref="D110" r:id="rId74" tooltip="Plan España" display="https://es.wikipedia.org/wiki/Plan_Espa%C3%B1a" xr:uid="{3CBD7868-E86C-4544-9089-1949B5E324D2}"/>
+    <hyperlink ref="D113" r:id="rId75" tooltip="Samaritan's Purse" display="https://es.wikipedia.org/wiki/Samaritan%27s_Purse" xr:uid="{BB4ECD58-3E63-4C18-A722-0B1E6674731B}"/>
+    <hyperlink ref="D114" r:id="rId76" tooltip="Save the Children" display="https://es.wikipedia.org/wiki/Save_the_Children" xr:uid="{1C0E651B-309A-4498-BA24-3B74C6551D45}"/>
+    <hyperlink ref="D117" r:id="rId77" location="cite_note-51" display="https://es.wikipedia.org/wiki/Anexo:Entidades_de_ayuda_al_desarrollo - cite_note-51" xr:uid="{DCFBEAFA-8929-4A28-9899-DEE603692E3E}"/>
+    <hyperlink ref="D121" r:id="rId78" tooltip="World Vision" display="https://es.wikipedia.org/wiki/World_Vision" xr:uid="{418EAC2C-C3FC-45C6-A51A-58C79E9EA55C}"/>
+    <hyperlink ref="E2" r:id="rId79" xr:uid="{77ED589A-285C-4C4E-9500-24A11C09336A}"/>
+    <hyperlink ref="F19" r:id="rId80" xr:uid="{651E4D64-7637-44C4-9E18-FB0DA5787AD4}"/>
+    <hyperlink ref="D37" r:id="rId81" tooltip="Corporación Interamericana de Inversiones" display="https://es.wikipedia.org/wiki/Corporaci%C3%B3n_Interamericana_de_Inversiones" xr:uid="{F818E0D8-F81D-4938-8659-0CA250E106CB}"/>
+    <hyperlink ref="E49" r:id="rId82" xr:uid="{A57253BB-6BCB-4F5F-8E99-FDA9C626E303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>